--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Fgf9-Fgfr1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Fgf9-Fgfr1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -82,19 +82,19 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>Fgf9</t>
+  </si>
+  <si>
+    <t>Fgfr1</t>
+  </si>
+  <si>
+    <t>Inflammatory-Mac</t>
+  </si>
+  <si>
+    <t>MuSCs</t>
+  </si>
+  <si>
     <t>Neutrophils</t>
-  </si>
-  <si>
-    <t>Fgf9</t>
-  </si>
-  <si>
-    <t>Fgfr1</t>
-  </si>
-  <si>
-    <t>Inflammatory-Mac</t>
-  </si>
-  <si>
-    <t>MuSCs</t>
   </si>
   <si>
     <t>Resolving-Mac</t>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T19"/>
+  <dimension ref="A1:T13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,10 +528,10 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" t="s">
         <v>23</v>
-      </c>
-      <c r="C2" t="s">
-        <v>24</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1.3096565</v>
+        <v>2.0438855</v>
       </c>
       <c r="H2">
-        <v>2.619313</v>
+        <v>4.087771</v>
       </c>
       <c r="I2">
-        <v>0.498822476538879</v>
+        <v>0.9959862688486789</v>
       </c>
       <c r="J2">
-        <v>0.3988701096662744</v>
+        <v>0.9939914616018896</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>10.077153</v>
+        <v>10.402079</v>
       </c>
       <c r="N2">
-        <v>20.154306</v>
+        <v>20.804158</v>
       </c>
       <c r="O2">
-        <v>0.08561976287781047</v>
+        <v>0.117441350183963</v>
       </c>
       <c r="P2">
-        <v>0.06709546746404282</v>
+        <v>0.08862141909929068</v>
       </c>
       <c r="Q2">
-        <v>13.1976089279445</v>
+        <v>21.2606584379545</v>
       </c>
       <c r="R2">
-        <v>52.790435711778</v>
+        <v>85.042633751818</v>
       </c>
       <c r="S2">
-        <v>0.04270906215938099</v>
+        <v>0.1169699721782764</v>
       </c>
       <c r="T2">
-        <v>0.02676237646549271</v>
+        <v>0.08808893389973756</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,10 +590,10 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" t="s">
         <v>23</v>
-      </c>
-      <c r="C3" t="s">
-        <v>24</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1.3096565</v>
+        <v>2.0438855</v>
       </c>
       <c r="H3">
-        <v>2.619313</v>
+        <v>4.087771</v>
       </c>
       <c r="I3">
-        <v>0.498822476538879</v>
+        <v>0.9959862688486789</v>
       </c>
       <c r="J3">
-        <v>0.3988701096662744</v>
+        <v>0.9939914616018896</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>168.501376</v>
       </c>
       <c r="O3">
-        <v>0.4772197020892965</v>
+        <v>0.6341369869521791</v>
       </c>
       <c r="P3">
-        <v>0.560955985835208</v>
+        <v>0.7177810830557603</v>
       </c>
       <c r="Q3">
-        <v>73.55964077911466</v>
+        <v>114.7991730454827</v>
       </c>
       <c r="R3">
-        <v>441.357844674688</v>
+        <v>688.795038272896</v>
       </c>
       <c r="S3">
-        <v>0.2380479136493289</v>
+        <v>0.6315917315734443</v>
       </c>
       <c r="T3">
-        <v>0.2237485755880425</v>
+        <v>0.7134682678567824</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,13 +652,13 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" t="s">
         <v>23</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>24</v>
-      </c>
-      <c r="D4" t="s">
-        <v>25</v>
       </c>
       <c r="E4">
         <v>2</v>
@@ -667,16 +667,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>1.3096565</v>
+        <v>2.0438855</v>
       </c>
       <c r="H4">
-        <v>2.619313</v>
+        <v>4.087771</v>
       </c>
       <c r="I4">
-        <v>0.498822476538879</v>
+        <v>0.9959862688486789</v>
       </c>
       <c r="J4">
-        <v>0.3988701096662744</v>
+        <v>0.9939914616018896</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.9207109999999999</v>
+        <v>0.2909543333333333</v>
       </c>
       <c r="N4">
-        <v>2.762133</v>
+        <v>0.8728629999999999</v>
       </c>
       <c r="O4">
-        <v>0.007822750880034444</v>
+        <v>0.003284926960133785</v>
       </c>
       <c r="P4">
-        <v>0.009195385087080598</v>
+        <v>0.003718216220971988</v>
       </c>
       <c r="Q4">
-        <v>1.2058151457715</v>
+        <v>0.5946773430621667</v>
       </c>
       <c r="R4">
-        <v>7.234890874628999</v>
+        <v>3.568064058373</v>
       </c>
       <c r="S4">
-        <v>0.003902163967325476</v>
+        <v>0.003271742146464082</v>
       </c>
       <c r="T4">
-        <v>0.003667764258107462</v>
+        <v>0.003695875176035801</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,13 +714,13 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" t="s">
         <v>23</v>
       </c>
-      <c r="C5" t="s">
-        <v>24</v>
-      </c>
       <c r="D5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E5">
         <v>2</v>
@@ -729,16 +729,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>1.3096565</v>
+        <v>2.0438855</v>
       </c>
       <c r="H5">
-        <v>2.619313</v>
+        <v>4.087771</v>
       </c>
       <c r="I5">
-        <v>0.498822476538879</v>
+        <v>0.9959862688486789</v>
       </c>
       <c r="J5">
-        <v>0.3988701096662744</v>
+        <v>0.9939914616018896</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>42.6300515</v>
+        <v>20.562391</v>
       </c>
       <c r="N5">
-        <v>85.260103</v>
+        <v>41.124782</v>
       </c>
       <c r="O5">
-        <v>0.362202985396654</v>
+        <v>0.232153107282743</v>
       </c>
       <c r="P5">
-        <v>0.2838384247424566</v>
+        <v>0.175183083160057</v>
       </c>
       <c r="Q5">
-        <v>55.83072404230975</v>
+        <v>42.0271728102305</v>
       </c>
       <c r="R5">
-        <v>223.322896169239</v>
+        <v>168.108691240922</v>
       </c>
       <c r="S5">
-        <v>0.1806749901853344</v>
+        <v>0.2312213071241662</v>
       </c>
       <c r="T5">
-        <v>0.1132146636045262</v>
+        <v>0.1741304888781904</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,13 +776,13 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" t="s">
         <v>23</v>
       </c>
-      <c r="C6" t="s">
-        <v>24</v>
-      </c>
       <c r="D6" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="E6">
         <v>2</v>
@@ -791,16 +791,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>1.3096565</v>
+        <v>2.0438855</v>
       </c>
       <c r="H6">
-        <v>2.619313</v>
+        <v>4.087771</v>
       </c>
       <c r="I6">
-        <v>0.498822476538879</v>
+        <v>0.9959862688486789</v>
       </c>
       <c r="J6">
-        <v>0.3988701096662744</v>
+        <v>0.9939914616018896</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>6.460321333333333</v>
+        <v>0.5741476666666667</v>
       </c>
       <c r="N6">
-        <v>19.380964</v>
+        <v>1.722443</v>
       </c>
       <c r="O6">
-        <v>0.05488962811961477</v>
+        <v>0.006482230828885768</v>
       </c>
       <c r="P6">
-        <v>0.06452094353850663</v>
+        <v>0.007337251667557973</v>
       </c>
       <c r="Q6">
-        <v>8.460801826288666</v>
+        <v>1.173492090758834</v>
       </c>
       <c r="R6">
-        <v>50.764810957732</v>
+        <v>7.040952544553001</v>
       </c>
       <c r="S6">
-        <v>0.02738018023492433</v>
+        <v>0.006456212897077816</v>
       </c>
       <c r="T6">
-        <v>0.02573547582497564</v>
+        <v>0.007293165509176851</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,10 +838,10 @@
         <v>20</v>
       </c>
       <c r="B7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" t="s">
         <v>23</v>
-      </c>
-      <c r="C7" t="s">
-        <v>24</v>
       </c>
       <c r="D7" t="s">
         <v>27</v>
@@ -853,16 +853,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>1.3096565</v>
+        <v>2.0438855</v>
       </c>
       <c r="H7">
-        <v>2.619313</v>
+        <v>4.087771</v>
       </c>
       <c r="I7">
-        <v>0.498822476538879</v>
+        <v>0.9959862688486789</v>
       </c>
       <c r="J7">
-        <v>0.3988701096662744</v>
+        <v>0.9939914616018896</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>1.441214666666667</v>
+        <v>0.5758453333333333</v>
       </c>
       <c r="N7">
-        <v>4.323644</v>
+        <v>1.727536</v>
       </c>
       <c r="O7">
-        <v>0.01224517063658978</v>
+        <v>0.006501397792095299</v>
       </c>
       <c r="P7">
-        <v>0.01439379333270538</v>
+        <v>0.00735894679636216</v>
       </c>
       <c r="Q7">
-        <v>1.887496156095333</v>
+        <v>1.176961927042667</v>
       </c>
       <c r="R7">
-        <v>11.324976936572</v>
+        <v>7.061771562256</v>
       </c>
       <c r="S7">
-        <v>0.006108166342584876</v>
+        <v>0.006475302929250036</v>
       </c>
       <c r="T7">
-        <v>0.005741253925129884</v>
+        <v>0.007314730281966567</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,10 +900,10 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" t="s">
         <v>23</v>
-      </c>
-      <c r="C8" t="s">
-        <v>24</v>
       </c>
       <c r="D8" t="s">
         <v>20</v>
@@ -921,10 +921,10 @@
         <v>0.02471</v>
       </c>
       <c r="I8">
-        <v>0.003137184800053983</v>
+        <v>0.004013731151321157</v>
       </c>
       <c r="J8">
-        <v>0.003762849422674434</v>
+        <v>0.006008538398110532</v>
       </c>
       <c r="K8">
         <v>2</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>10.077153</v>
+        <v>10.402079</v>
       </c>
       <c r="N8">
-        <v>20.154306</v>
+        <v>20.804158</v>
       </c>
       <c r="O8">
-        <v>0.08561976287781047</v>
+        <v>0.117441350183963</v>
       </c>
       <c r="P8">
-        <v>0.06709546746404282</v>
+        <v>0.08862141909929068</v>
       </c>
       <c r="Q8">
-        <v>0.08300215020999999</v>
+        <v>0.08567845736333334</v>
       </c>
       <c r="R8">
-        <v>0.4980129012599999</v>
+        <v>0.51407074418</v>
       </c>
       <c r="S8">
-        <v>0.0002686050186844933</v>
+        <v>0.0004713780056865889</v>
       </c>
       <c r="T8">
-        <v>0.0002524701410111448</v>
+        <v>0.0005324851995531342</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,10 +962,10 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" t="s">
         <v>23</v>
-      </c>
-      <c r="C9" t="s">
-        <v>24</v>
       </c>
       <c r="D9" t="s">
         <v>21</v>
@@ -983,10 +983,10 @@
         <v>0.02471</v>
       </c>
       <c r="I9">
-        <v>0.003137184800053983</v>
+        <v>0.004013731151321157</v>
       </c>
       <c r="J9">
-        <v>0.003762849422674434</v>
+        <v>0.006008538398110532</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -1001,10 +1001,10 @@
         <v>168.501376</v>
       </c>
       <c r="O9">
-        <v>0.4772197020892965</v>
+        <v>0.6341369869521791</v>
       </c>
       <c r="P9">
-        <v>0.560955985835208</v>
+        <v>0.7177810830557603</v>
       </c>
       <c r="Q9">
         <v>0.4626298889955555</v>
@@ -1013,10 +1013,10 @@
         <v>4.16366900096</v>
       </c>
       <c r="S9">
-        <v>0.001497126395680831</v>
+        <v>0.0025452553787349</v>
       </c>
       <c r="T9">
-        <v>0.002110792907445781</v>
+        <v>0.0043128151989779</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,13 +1024,13 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10" t="s">
         <v>23</v>
       </c>
-      <c r="C10" t="s">
+      <c r="D10" t="s">
         <v>24</v>
-      </c>
-      <c r="D10" t="s">
-        <v>25</v>
       </c>
       <c r="E10">
         <v>1</v>
@@ -1045,10 +1045,10 @@
         <v>0.02471</v>
       </c>
       <c r="I10">
-        <v>0.003137184800053983</v>
+        <v>0.004013731151321157</v>
       </c>
       <c r="J10">
-        <v>0.003762849422674434</v>
+        <v>0.006008538398110532</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.9207109999999999</v>
+        <v>0.2909543333333333</v>
       </c>
       <c r="N10">
-        <v>2.762133</v>
+        <v>0.8728629999999999</v>
       </c>
       <c r="O10">
-        <v>0.007822750880034444</v>
+        <v>0.003284926960133785</v>
       </c>
       <c r="P10">
-        <v>0.009195385087080598</v>
+        <v>0.003718216220971988</v>
       </c>
       <c r="Q10">
-        <v>0.007583589603333333</v>
+        <v>0.002396493858888889</v>
       </c>
       <c r="R10">
-        <v>0.06825230642999999</v>
+        <v>0.02156844473</v>
       </c>
       <c r="S10">
-        <v>2.454141515545298E-05</v>
+        <v>1.318481366970369E-05</v>
       </c>
       <c r="T10">
-        <v>3.460084946619033E-05</v>
+        <v>2.234104493618763E-05</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1086,13 +1086,13 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11" t="s">
         <v>23</v>
       </c>
-      <c r="C11" t="s">
-        <v>24</v>
-      </c>
       <c r="D11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E11">
         <v>1</v>
@@ -1107,10 +1107,10 @@
         <v>0.02471</v>
       </c>
       <c r="I11">
-        <v>0.003137184800053983</v>
+        <v>0.004013731151321157</v>
       </c>
       <c r="J11">
-        <v>0.003762849422674434</v>
+        <v>0.006008538398110532</v>
       </c>
       <c r="K11">
         <v>2</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>42.6300515</v>
+        <v>20.562391</v>
       </c>
       <c r="N11">
-        <v>85.260103</v>
+        <v>41.124782</v>
       </c>
       <c r="O11">
-        <v>0.362202985396654</v>
+        <v>0.232153107282743</v>
       </c>
       <c r="P11">
-        <v>0.2838384247424566</v>
+        <v>0.175183083160057</v>
       </c>
       <c r="Q11">
-        <v>0.3511295241883333</v>
+        <v>0.1693655605366667</v>
       </c>
       <c r="R11">
-        <v>2.10677714513</v>
+        <v>1.01619336322</v>
       </c>
       <c r="S11">
-        <v>0.001136297700320558</v>
+        <v>0.0009318001585767482</v>
       </c>
       <c r="T11">
-        <v>0.001068041252674973</v>
+        <v>0.001052594281866593</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1148,13 +1148,13 @@
         <v>21</v>
       </c>
       <c r="B12" t="s">
+        <v>22</v>
+      </c>
+      <c r="C12" t="s">
         <v>23</v>
       </c>
-      <c r="C12" t="s">
-        <v>24</v>
-      </c>
       <c r="D12" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="E12">
         <v>1</v>
@@ -1169,10 +1169,10 @@
         <v>0.02471</v>
       </c>
       <c r="I12">
-        <v>0.003137184800053983</v>
+        <v>0.004013731151321157</v>
       </c>
       <c r="J12">
-        <v>0.003762849422674434</v>
+        <v>0.006008538398110532</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>6.460321333333333</v>
+        <v>0.5741476666666667</v>
       </c>
       <c r="N12">
-        <v>19.380964</v>
+        <v>1.722443</v>
       </c>
       <c r="O12">
-        <v>0.05488962811961477</v>
+        <v>0.006482230828885768</v>
       </c>
       <c r="P12">
-        <v>0.06452094353850663</v>
+        <v>0.007337251667557973</v>
       </c>
       <c r="Q12">
-        <v>0.05321151338222221</v>
+        <v>0.004729062947777778</v>
       </c>
       <c r="R12">
-        <v>0.47890362044</v>
+        <v>0.04256156653</v>
       </c>
       <c r="S12">
-        <v>0.0001721989070174711</v>
+        <v>2.601793180795318E-05</v>
       </c>
       <c r="T12">
-        <v>0.0002427825951442794</v>
+        <v>4.408615838112261E-05</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1210,10 +1210,10 @@
         <v>21</v>
       </c>
       <c r="B13" t="s">
+        <v>22</v>
+      </c>
+      <c r="C13" t="s">
         <v>23</v>
-      </c>
-      <c r="C13" t="s">
-        <v>24</v>
       </c>
       <c r="D13" t="s">
         <v>27</v>
@@ -1231,10 +1231,10 @@
         <v>0.02471</v>
       </c>
       <c r="I13">
-        <v>0.003137184800053983</v>
+        <v>0.004013731151321157</v>
       </c>
       <c r="J13">
-        <v>0.003762849422674434</v>
+        <v>0.006008538398110532</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,400 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>1.441214666666667</v>
+        <v>0.5758453333333333</v>
       </c>
       <c r="N13">
-        <v>4.323644</v>
+        <v>1.727536</v>
       </c>
       <c r="O13">
-        <v>0.01224517063658978</v>
+        <v>0.006501397792095299</v>
       </c>
       <c r="P13">
-        <v>0.01439379333270538</v>
+        <v>0.00735894679636216</v>
       </c>
       <c r="Q13">
-        <v>0.01187080480444444</v>
+        <v>0.004743046062222222</v>
       </c>
       <c r="R13">
-        <v>0.10683724324</v>
+        <v>0.04268741456</v>
       </c>
       <c r="S13">
-        <v>3.841536319517683E-05</v>
+        <v>2.609486284526349E-05</v>
       </c>
       <c r="T13">
-        <v>5.416167693206556E-05</v>
-      </c>
-    </row>
-    <row r="14" spans="1:20">
-      <c r="A14" t="s">
-        <v>22</v>
-      </c>
-      <c r="B14" t="s">
-        <v>23</v>
-      </c>
-      <c r="C14" t="s">
-        <v>24</v>
-      </c>
-      <c r="D14" t="s">
-        <v>20</v>
-      </c>
-      <c r="E14">
-        <v>2</v>
-      </c>
-      <c r="F14">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G14">
-        <v>1.307603</v>
-      </c>
-      <c r="H14">
-        <v>3.922809</v>
-      </c>
-      <c r="I14">
-        <v>0.4980403386610671</v>
-      </c>
-      <c r="J14">
-        <v>0.5973670409110513</v>
-      </c>
-      <c r="K14">
-        <v>2</v>
-      </c>
-      <c r="L14">
-        <v>1</v>
-      </c>
-      <c r="M14">
-        <v>10.077153</v>
-      </c>
-      <c r="N14">
-        <v>20.154306</v>
-      </c>
-      <c r="O14">
-        <v>0.08561976287781047</v>
-      </c>
-      <c r="P14">
-        <v>0.06709546746404282</v>
-      </c>
-      <c r="Q14">
-        <v>13.176915494259</v>
-      </c>
-      <c r="R14">
-        <v>79.061492965554</v>
-      </c>
-      <c r="S14">
-        <v>0.04264209569974498</v>
-      </c>
-      <c r="T14">
-        <v>0.04008062085753898</v>
-      </c>
-    </row>
-    <row r="15" spans="1:20">
-      <c r="A15" t="s">
-        <v>22</v>
-      </c>
-      <c r="B15" t="s">
-        <v>23</v>
-      </c>
-      <c r="C15" t="s">
-        <v>24</v>
-      </c>
-      <c r="D15" t="s">
-        <v>21</v>
-      </c>
-      <c r="E15">
-        <v>2</v>
-      </c>
-      <c r="F15">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G15">
-        <v>1.307603</v>
-      </c>
-      <c r="H15">
-        <v>3.922809</v>
-      </c>
-      <c r="I15">
-        <v>0.4980403386610671</v>
-      </c>
-      <c r="J15">
-        <v>0.5973670409110513</v>
-      </c>
-      <c r="K15">
-        <v>3</v>
-      </c>
-      <c r="L15">
-        <v>1</v>
-      </c>
-      <c r="M15">
-        <v>56.16712533333333</v>
-      </c>
-      <c r="N15">
-        <v>168.501376</v>
-      </c>
-      <c r="O15">
-        <v>0.4772197020892965</v>
-      </c>
-      <c r="P15">
-        <v>0.560955985835208</v>
-      </c>
-      <c r="Q15">
-        <v>73.44430158724266</v>
-      </c>
-      <c r="R15">
-        <v>660.9987142851841</v>
-      </c>
-      <c r="S15">
-        <v>0.2376746620442868</v>
-      </c>
-      <c r="T15">
-        <v>0.3350966173397198</v>
-      </c>
-    </row>
-    <row r="16" spans="1:20">
-      <c r="A16" t="s">
-        <v>22</v>
-      </c>
-      <c r="B16" t="s">
-        <v>23</v>
-      </c>
-      <c r="C16" t="s">
-        <v>24</v>
-      </c>
-      <c r="D16" t="s">
-        <v>25</v>
-      </c>
-      <c r="E16">
-        <v>2</v>
-      </c>
-      <c r="F16">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G16">
-        <v>1.307603</v>
-      </c>
-      <c r="H16">
-        <v>3.922809</v>
-      </c>
-      <c r="I16">
-        <v>0.4980403386610671</v>
-      </c>
-      <c r="J16">
-        <v>0.5973670409110513</v>
-      </c>
-      <c r="K16">
-        <v>3</v>
-      </c>
-      <c r="L16">
-        <v>1</v>
-      </c>
-      <c r="M16">
-        <v>0.9207109999999999</v>
-      </c>
-      <c r="N16">
-        <v>2.762133</v>
-      </c>
-      <c r="O16">
-        <v>0.007822750880034444</v>
-      </c>
-      <c r="P16">
-        <v>0.009195385087080598</v>
-      </c>
-      <c r="Q16">
-        <v>1.203924465733</v>
-      </c>
-      <c r="R16">
-        <v>10.835320191597</v>
-      </c>
-      <c r="S16">
-        <v>0.003896045497553515</v>
-      </c>
-      <c r="T16">
-        <v>0.005493019979506947</v>
-      </c>
-    </row>
-    <row r="17" spans="1:20">
-      <c r="A17" t="s">
-        <v>22</v>
-      </c>
-      <c r="B17" t="s">
-        <v>23</v>
-      </c>
-      <c r="C17" t="s">
-        <v>24</v>
-      </c>
-      <c r="D17" t="s">
-        <v>26</v>
-      </c>
-      <c r="E17">
-        <v>2</v>
-      </c>
-      <c r="F17">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G17">
-        <v>1.307603</v>
-      </c>
-      <c r="H17">
-        <v>3.922809</v>
-      </c>
-      <c r="I17">
-        <v>0.4980403386610671</v>
-      </c>
-      <c r="J17">
-        <v>0.5973670409110513</v>
-      </c>
-      <c r="K17">
-        <v>2</v>
-      </c>
-      <c r="L17">
-        <v>1</v>
-      </c>
-      <c r="M17">
-        <v>42.6300515</v>
-      </c>
-      <c r="N17">
-        <v>85.260103</v>
-      </c>
-      <c r="O17">
-        <v>0.362202985396654</v>
-      </c>
-      <c r="P17">
-        <v>0.2838384247424566</v>
-      </c>
-      <c r="Q17">
-        <v>55.7431832315545</v>
-      </c>
-      <c r="R17">
-        <v>334.459099389327</v>
-      </c>
-      <c r="S17">
-        <v>0.1803916975109991</v>
-      </c>
-      <c r="T17">
-        <v>0.1695557198852554</v>
-      </c>
-    </row>
-    <row r="18" spans="1:20">
-      <c r="A18" t="s">
-        <v>22</v>
-      </c>
-      <c r="B18" t="s">
-        <v>23</v>
-      </c>
-      <c r="C18" t="s">
-        <v>24</v>
-      </c>
-      <c r="D18" t="s">
-        <v>22</v>
-      </c>
-      <c r="E18">
-        <v>2</v>
-      </c>
-      <c r="F18">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G18">
-        <v>1.307603</v>
-      </c>
-      <c r="H18">
-        <v>3.922809</v>
-      </c>
-      <c r="I18">
-        <v>0.4980403386610671</v>
-      </c>
-      <c r="J18">
-        <v>0.5973670409110513</v>
-      </c>
-      <c r="K18">
-        <v>3</v>
-      </c>
-      <c r="L18">
-        <v>1</v>
-      </c>
-      <c r="M18">
-        <v>6.460321333333333</v>
-      </c>
-      <c r="N18">
-        <v>19.380964</v>
-      </c>
-      <c r="O18">
-        <v>0.05488962811961477</v>
-      </c>
-      <c r="P18">
-        <v>0.06452094353850663</v>
-      </c>
-      <c r="Q18">
-        <v>8.447535556430667</v>
-      </c>
-      <c r="R18">
-        <v>76.027820007876</v>
-      </c>
-      <c r="S18">
-        <v>0.02733724897767297</v>
-      </c>
-      <c r="T18">
-        <v>0.03854268511838672</v>
-      </c>
-    </row>
-    <row r="19" spans="1:20">
-      <c r="A19" t="s">
-        <v>22</v>
-      </c>
-      <c r="B19" t="s">
-        <v>23</v>
-      </c>
-      <c r="C19" t="s">
-        <v>24</v>
-      </c>
-      <c r="D19" t="s">
-        <v>27</v>
-      </c>
-      <c r="E19">
-        <v>2</v>
-      </c>
-      <c r="F19">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G19">
-        <v>1.307603</v>
-      </c>
-      <c r="H19">
-        <v>3.922809</v>
-      </c>
-      <c r="I19">
-        <v>0.4980403386610671</v>
-      </c>
-      <c r="J19">
-        <v>0.5973670409110513</v>
-      </c>
-      <c r="K19">
-        <v>3</v>
-      </c>
-      <c r="L19">
-        <v>1</v>
-      </c>
-      <c r="M19">
-        <v>1.441214666666667</v>
-      </c>
-      <c r="N19">
-        <v>4.323644</v>
-      </c>
-      <c r="O19">
-        <v>0.01224517063658978</v>
-      </c>
-      <c r="P19">
-        <v>0.01439379333270538</v>
-      </c>
-      <c r="Q19">
-        <v>1.884536621777333</v>
-      </c>
-      <c r="R19">
-        <v>16.960829595996</v>
-      </c>
-      <c r="S19">
-        <v>0.006098588930809729</v>
-      </c>
-      <c r="T19">
-        <v>0.008598377730643432</v>
+        <v>4.421651439559452E-05</v>
       </c>
     </row>
   </sheetData>
